--- a/國小數學科實習教師問卷(合併檔107092-10802).xlsx
+++ b/國小數學科實習教師問卷(合併檔107092-10802).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22770" windowHeight="11535"/>
+    <workbookView windowWidth="20430" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -4460,19 +4460,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="25">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4511,40 +4504,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4564,14 +4528,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4585,15 +4579,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4614,6 +4618,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -4622,39 +4633,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4693,7 +4686,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4705,37 +4740,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4747,7 +4770,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4759,7 +4800,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4771,109 +4854,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4948,6 +4935,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4959,6 +4955,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4997,197 +5023,164 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5196,52 +5189,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5565,8 +5552,8 @@
   <sheetPr/>
   <dimension ref="A1:BJ111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" topLeftCell="AT1" workbookViewId="0">
-      <selection activeCell="BJ4" sqref="BJ4"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" topLeftCell="AV1" workbookViewId="0">
+      <selection activeCell="BK4" sqref="BK4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="162" customHeight="1"/>
